--- a/public/data/Base_Dados.xlsx
+++ b/public/data/Base_Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mdsgov-my.sharepoint.com/personal/pedro_pneto_esporte_gov_br/Documents/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Site\Planilha_Custos\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0328C6C-FF01-4910-B52E-CBE21B96483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B34BF-FBA5-4792-924F-DF32E519D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42900" yWindow="7230" windowWidth="12150" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -9510,8 +9510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27EBCDB-9D56-4584-A118-E6E56F1A9167}">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10806,7 +10806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C48B32-BAA5-4B3A-9A22-FD34AE19D98D}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
